--- a/31_special/eel_mongo/output.xlsx
+++ b/31_special/eel_mongo/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="customers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,6 +2950,526 @@
         </is>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>62d28130b9c864729df9206c</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>dgsdfg dfgfd</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>62d285eeba360a2a52adc3cb</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>62d2d678c2136937d2ce514e</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>62d2d7060ae754d92b7677b8</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>fhfh ghfhf</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>62d2dd8f96a99ab8d8494b03</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>gdfgd</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>62d2f1127f1854797a88379e</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>hdf</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>62d2f34cff4169d11af88438</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>iyi</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>62d2f3dd4c24041f899552fa</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>mbvmb</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>62d2f4136e9cfdbd9d3786ae</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>dfhfd</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>62d2f4eac405ea366078b6f9</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>fghfdg</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>62d2f5db2b39af6e31eed5d9</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>trutyu</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>62d2f6a2df479edbef224dfb</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>dfgh</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>62d2f6d058f824d781bacc3b</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>sdfgd</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>62d2f757c18e0b855e344ff6</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>asdfas</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>62d2f7ac91e6a2b74bf38acd</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>sdfgdsf</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>62d2f8f9ff4ad39e3a42f2ed</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>gfhf</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>62d2fa43bb8621899e9f5b51</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>hjkjh</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>62d2fa8adaaa34859515b306</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>rtytr</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>62d2fafad22bcc6d544e963d</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ghjg</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>62d2fb983ad04a4661741d23</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>fghfhf</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>62d2fca993824b307ef8b0fa</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ghjhg</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>62d2fe409509239185d5d206</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>sdfsdf</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>62d2ff53c6e62c4d76117e03</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>fhfhf</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>62d304e48bfbcb462a71e85e</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>etet</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>62d305bd56bea58aa80202e3</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>rtyt</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>62d3061ce9bdd31e25c9bc72</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>sdfgdfg</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/31_special/eel_mongo/output.xlsx
+++ b/31_special/eel_mongo/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3470,6 +3470,26 @@
         </is>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>62d3cf9cd1bb1581b081cfb8</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>dfg sdfgfd</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/31_special/eel_mongo/output.xlsx
+++ b/31_special/eel_mongo/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,21 @@
           <t>person_age</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cust_type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -469,6 +484,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,6 +507,9 @@
           <t>43</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -509,6 +530,9 @@
           <t>32</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -529,6 +553,9 @@
           <t>32</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -549,6 +576,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -569,6 +599,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -589,6 +622,9 @@
           <t>233</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -609,6 +645,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -629,6 +668,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -649,6 +691,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -669,6 +714,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -689,6 +737,9 @@
           <t>56</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -709,6 +760,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -729,6 +783,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -749,6 +806,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -769,6 +829,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -789,6 +852,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -809,6 +875,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -829,6 +898,9 @@
           <t>75</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -849,6 +921,9 @@
           <t>54</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -869,6 +944,9 @@
           <t>66</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -889,6 +967,9 @@
           <t>56</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -909,6 +990,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -929,6 +1013,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -949,6 +1036,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -969,6 +1059,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -989,6 +1082,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1009,6 +1105,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1029,6 +1128,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1049,6 +1151,9 @@
           <t>98</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1069,6 +1174,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1089,6 +1197,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1109,6 +1220,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1129,6 +1243,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1149,6 +1266,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1169,6 +1289,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1189,6 +1312,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1209,6 +1335,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1229,6 +1358,9 @@
           <t>66</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1249,6 +1381,9 @@
           <t>444</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1269,6 +1404,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1289,6 +1427,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1309,6 +1450,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1329,6 +1473,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1349,6 +1496,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1369,6 +1519,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1389,6 +1542,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1409,6 +1565,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1429,6 +1588,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1449,6 +1611,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1469,6 +1634,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1489,6 +1657,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1509,6 +1680,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1529,6 +1703,9 @@
           <t>56</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1549,6 +1726,9 @@
           <t>36</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1569,6 +1749,9 @@
           <t>555</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1589,6 +1772,9 @@
           <t>56</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1609,6 +1795,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1629,6 +1818,9 @@
           <t>67</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1649,6 +1841,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1669,6 +1864,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1689,6 +1887,9 @@
           <t>67</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1709,6 +1910,9 @@
           <t>56</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1729,6 +1933,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1749,6 +1956,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1769,6 +1979,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1789,6 +2002,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1809,6 +2025,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1829,6 +2048,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1849,6 +2071,9 @@
           <t>7</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1869,6 +2094,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1889,6 +2117,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1909,6 +2140,9 @@
           <t>555</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1929,6 +2163,9 @@
           <t>555</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1949,6 +2186,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1969,6 +2209,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1989,6 +2232,9 @@
           <t>67</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2009,6 +2255,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2029,6 +2278,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2049,6 +2301,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2069,6 +2324,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2089,6 +2347,9 @@
           <t>646</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2109,6 +2370,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2129,6 +2393,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2149,6 +2416,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2169,6 +2439,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2189,6 +2462,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2209,6 +2485,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2229,6 +2508,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2249,6 +2531,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2269,6 +2554,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2289,6 +2577,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2309,6 +2600,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2329,6 +2623,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2349,6 +2646,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2369,6 +2669,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2389,6 +2692,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2409,6 +2715,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2429,6 +2738,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2449,6 +2761,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2469,6 +2784,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2489,6 +2807,9 @@
           <t>454</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2509,6 +2830,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2529,6 +2853,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2549,6 +2876,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2569,6 +2899,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2589,6 +2922,9 @@
           <t>3453</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2609,6 +2945,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2629,6 +2968,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2649,6 +2991,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2669,6 +3014,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2689,6 +3037,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2709,6 +3060,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2729,6 +3083,9 @@
           <t>3</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2749,6 +3106,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2769,6 +3129,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2789,6 +3152,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2809,6 +3175,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2829,6 +3198,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2849,6 +3221,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2869,6 +3244,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2889,6 +3267,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2909,6 +3290,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2929,6 +3313,9 @@
           <t>35</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2949,6 +3336,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2969,6 +3359,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2989,6 +3382,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3009,6 +3405,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3029,6 +3428,9 @@
           <t>89</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3049,6 +3451,9 @@
           <t>54</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3069,6 +3474,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3089,6 +3497,9 @@
           <t>56</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3109,6 +3520,9 @@
           <t>66</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3129,6 +3543,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3149,6 +3566,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3169,6 +3589,9 @@
           <t>66</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3189,6 +3612,9 @@
           <t>55</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3209,6 +3635,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3229,6 +3658,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3249,6 +3681,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3269,6 +3704,9 @@
           <t>66</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3289,6 +3727,9 @@
           <t>77</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3309,6 +3750,9 @@
           <t>77</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3329,6 +3773,9 @@
           <t>66</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3349,6 +3796,9 @@
           <t>66</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3369,6 +3819,9 @@
           <t>77</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3389,6 +3842,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3409,6 +3865,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3429,6 +3888,9 @@
           <t>44</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3449,6 +3911,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3469,6 +3934,9 @@
           <t>45</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3487,6 +3955,136 @@
       <c r="D153" t="inlineStr">
         <is>
           <t>45</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>62d5af214186ae3c117cf818</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Raja</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>62d5b20b490d6dd7aae711b3</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>gjgj</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>62d64e1d70ce7835fe2c59c9</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Highway 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>62f79dc545b8a23eeb964610</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Anuska Ghosh</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>62f79ddf45b8a23eeb964612</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Highway 37</t>
         </is>
       </c>
     </row>
